--- a/adv_sel/testData/testData.xlsx
+++ b/adv_sel/testData/testData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heman\eclipse-workspace.java\adv_sel\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heman\git\AdvanceSelMainFrameWork\adv_sel\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F313B3-74B8-4B9D-BA46-C88D87A8CA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6C0E08-A06D-41D6-9FE2-AAFD50220134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2F6F0485-D077-45F3-B310-6CD6F911DD80}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{2F6F0485-D077-45F3-B310-6CD6F911DD80}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
     <sheet name="opportunities" sheetId="3" r:id="rId3"/>
     <sheet name="products" sheetId="4" r:id="rId4"/>
+    <sheet name="flipkart" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -922,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B80C0A-8488-434F-B640-92D6E3C9159C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -967,4 +968,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C662EBF-2CD1-485F-91B9-11E89B654107}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>